--- a/Numbering model/mtd_analysis.xlsx
+++ b/Numbering model/mtd_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
   <si>
     <t>Image_name</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>No outer</t>
-  </si>
-  <si>
-    <t>Average %</t>
   </si>
   <si>
     <t>MTD</t>
@@ -820,7 +817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,34 +854,130 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1099,7 +1192,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>25.56</v>

--- a/Numbering model/mtd_analysis.xlsx
+++ b/Numbering model/mtd_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>Image_name</t>
   </si>
@@ -817,167 +817,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>22.22</v>
       </c>
       <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>22.22</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>33.33</v>
       </c>
       <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>22.22</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>22.22</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>33.33</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22.22</v>
       </c>
       <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>22.22</v>
+      </c>
+      <c r="C6">
+        <v>22.22</v>
+      </c>
+      <c r="D6">
+        <v>22.22</v>
+      </c>
+      <c r="E6">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>22.22</v>
+      </c>
+      <c r="C7">
+        <v>22.22</v>
+      </c>
+      <c r="D7">
+        <v>33.33</v>
+      </c>
+      <c r="E7">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>33.33</v>
+      </c>
+      <c r="C8">
+        <v>22.22</v>
+      </c>
+      <c r="D8">
+        <v>22.22</v>
+      </c>
+      <c r="E8">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>22.22</v>
+      </c>
+      <c r="C9">
+        <v>33.33</v>
+      </c>
+      <c r="D9">
+        <v>22.22</v>
+      </c>
+      <c r="E9">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>22.22</v>
+      </c>
+      <c r="C10">
+        <v>22.22</v>
+      </c>
+      <c r="D10">
+        <v>22.22</v>
+      </c>
+      <c r="E10">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>22.22</v>
+      </c>
+      <c r="C11">
+        <v>22.22</v>
+      </c>
+      <c r="D11">
+        <v>33.33</v>
+      </c>
+      <c r="E11">
+        <v>22.22</v>
       </c>
     </row>
   </sheetData>
